--- a/jacobi/src/test/resources/jacobi/test/data/GivensBatchRQTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/GivensBatchRQTest.xlsx
@@ -520,16 +520,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4947,7 +4947,7 @@
         <v>-1.605200082622815E-17</v>
       </c>
       <c r="B76" s="2">
-        <f t="shared" ref="B76:F76" si="26">AB67</f>
+        <f t="shared" ref="B76:F77" si="26">AB67</f>
         <v>3.2258587112724998E-16</v>
       </c>
       <c r="C76" s="2">
@@ -4971,29 +4971,29 @@
       </c>
     </row>
     <row r="77" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <f t="shared" ref="A77:F77" si="27">AH68</f>
+      <c r="A77" s="2">
+        <f>AA68</f>
         <v>-1.1912002104941577E-16</v>
       </c>
-      <c r="B77">
-        <f t="shared" si="27"/>
+      <c r="B77" s="2">
+        <f t="shared" si="26"/>
         <v>-3.0956489223737982E-16</v>
       </c>
-      <c r="C77">
-        <f t="shared" si="27"/>
+      <c r="C77" s="2">
+        <f t="shared" si="26"/>
         <v>-7.160142331374886E-17</v>
       </c>
-      <c r="D77">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <f t="shared" si="27"/>
-        <v>-6.3561532172193687</v>
-      </c>
-      <c r="F77">
-        <f t="shared" si="27"/>
-        <v>4.1592184746387897</v>
+      <c r="D77" s="2">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E77" s="2">
+        <f t="shared" si="26"/>
+        <v>1.8874085075340326</v>
+      </c>
+      <c r="F77" s="2">
+        <f t="shared" si="26"/>
+        <v>7.3578170109233412</v>
       </c>
     </row>
     <row r="79" spans="1:46" x14ac:dyDescent="0.25">
@@ -5015,153 +5015,153 @@
         <v>1.251627642766747</v>
       </c>
       <c r="B81">
-        <f t="shared" ref="B81:F86" si="28">AI63</f>
+        <f t="shared" ref="B81:F86" si="27">AI63</f>
         <v>-2.5583071388312004</v>
       </c>
       <c r="C81">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>1.6612298888040533</v>
       </c>
       <c r="D81">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>2.9154731411118462E-4</v>
       </c>
       <c r="E81">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>6.7891325642775691</v>
       </c>
       <c r="F81">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>-7.0734813069500522</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
-        <f t="shared" ref="A82:A86" si="29">AH64</f>
+        <f t="shared" ref="A82:A86" si="28">AH64</f>
         <v>3.2899803075388503</v>
       </c>
       <c r="B82">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>-1.8949500836456663</v>
       </c>
       <c r="C82">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>-0.43673562817523237</v>
       </c>
       <c r="D82">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>-2.2611235772607827</v>
       </c>
       <c r="E82">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>4.0632254920374145E-3</v>
       </c>
       <c r="F82">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>4.4184912152959388</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>-2.8900103890345994E-16</v>
       </c>
       <c r="B83">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>6.1864239769334795</v>
       </c>
       <c r="C83">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>-3.426226093536441</v>
       </c>
       <c r="D83">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>-2.3074705821366588</v>
       </c>
       <c r="E83">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>-3.0412910912527131</v>
       </c>
       <c r="F83">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>-0.40058897754021805</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>-2.5273830734750464E-17</v>
       </c>
       <c r="B84">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>-4.410650585272411E-16</v>
       </c>
       <c r="C84">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>3.5481277902451032</v>
       </c>
       <c r="D84">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>-3.3604743191337678</v>
       </c>
       <c r="E84">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>-2.4953503842268883</v>
       </c>
       <c r="F84">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>-2.6244359720492274</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>-1.605200082622815E-17</v>
       </c>
       <c r="B85">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>3.2258587112724998E-16</v>
       </c>
       <c r="C85">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>2.1018335508731081E-16</v>
       </c>
       <c r="D85">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>2.7716552147305626</v>
       </c>
       <c r="E85">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>2.7234098906034476</v>
       </c>
       <c r="F85">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>-4.6188039191233168</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>-1.1912002104941577E-16</v>
       </c>
       <c r="B86">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>-3.0956489223737982E-16</v>
       </c>
       <c r="C86">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>-7.160142331374886E-17</v>
       </c>
       <c r="D86">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="E86">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>-6.3561532172193687</v>
       </c>
       <c r="F86">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>4.1592184746387897</v>
       </c>
     </row>
@@ -5184,153 +5184,153 @@
         <v>-0.76900255725318079</v>
       </c>
       <c r="B90">
-        <f t="shared" ref="B90:F95" si="30">AP63</f>
+        <f t="shared" ref="B90:F95" si="29">AP63</f>
         <v>1.8195797257248687E-2</v>
       </c>
       <c r="C90">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0.39088010007617507</v>
       </c>
       <c r="D90">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>-0.25723965576207775</v>
       </c>
       <c r="E90">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0.34150782836028232</v>
       </c>
       <c r="F90">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0.26966069408931748</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
-        <f t="shared" ref="A91:A95" si="31">AO64</f>
+        <f t="shared" ref="A91:A95" si="30">AO64</f>
         <v>0.55668063372058296</v>
       </c>
       <c r="B91">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0.45051738813612513</v>
       </c>
       <c r="C91">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0.56456789850196476</v>
       </c>
       <c r="D91">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>-0.13965809137509716</v>
       </c>
       <c r="E91">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0.23879352331035891</v>
       </c>
       <c r="F91">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0.30311237808281499</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>-0.31423198274287523</v>
       </c>
       <c r="B92">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0.75358876089147686</v>
       </c>
       <c r="C92">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>4.3586330261043853E-2</v>
       </c>
       <c r="D92">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0.38211577716874534</v>
       </c>
       <c r="E92">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>-0.41271630695967576</v>
       </c>
       <c r="F92">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>-0.12294411373545769</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="B93">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>-0.47833772107918204</v>
       </c>
       <c r="C93">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0.6152686391964346</v>
       </c>
       <c r="D93">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0.46067676903123633</v>
       </c>
       <c r="E93">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>-0.41231063334139217</v>
       </c>
       <c r="F93">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0.10205088104814687</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="B94">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="C94">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>-0.38473441330514896</v>
       </c>
       <c r="D94">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0.31371941665349401</v>
       </c>
       <c r="E94">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>-8.751023270947178E-3</v>
       </c>
       <c r="F94">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0.86803397308230146</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="B95">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="C95">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="D95">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>-0.67651160518141196</v>
       </c>
       <c r="E95">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>-0.69709301215014841</v>
       </c>
       <c r="F95">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0.237472904699257</v>
       </c>
     </row>
@@ -5579,157 +5579,157 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106">
-        <f t="shared" ref="A106:F111" si="32">A98-A3</f>
+        <f t="shared" ref="A106:F111" si="31">A98-A3</f>
         <v>0</v>
       </c>
       <c r="B106">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="C106">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="D106">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>-1.2212453270876722E-15</v>
       </c>
       <c r="E106">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="F106">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="B107">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="C107">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="D107">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E107">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="F107">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>-1.1102230246251565E-15</v>
       </c>
       <c r="B108">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="C108">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="D108">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E108">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="F108">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>1.6653345369377348E-16</v>
       </c>
       <c r="B109">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>6.6613381477509392E-16</v>
       </c>
       <c r="C109">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="D109">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E109">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="F109">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="B110">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>5.5511151231257827E-16</v>
       </c>
       <c r="C110">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>4.4408920985006262E-16</v>
       </c>
       <c r="D110">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E110">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="F110">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>4.4408920985006262E-16</v>
       </c>
       <c r="B111">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>2.2204460492503131E-16</v>
       </c>
       <c r="C111">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>-1.1102230246251565E-16</v>
       </c>
       <c r="D111">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E111">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="F111">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
@@ -8431,1151 +8431,1151 @@
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">RAND()*10-3</f>
-        <v>-0.59593960563528103</v>
+        <v>-2.8251962384216029</v>
       </c>
       <c r="B1">
         <f t="shared" ref="B1:K16" ca="1" si="0">RAND()*10-3</f>
-        <v>3.0104561480671572</v>
+        <v>-2.2618123768328231</v>
       </c>
       <c r="C1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.90000131730826061</v>
+        <v>5.5269891975712913</v>
       </c>
       <c r="D1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10868941641441321</v>
+        <v>6.454456694593258</v>
       </c>
       <c r="E1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4001779662000917</v>
+        <v>-0.20296267912788757</v>
       </c>
       <c r="F1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9915053641417968</v>
+        <v>2.3391547454276775</v>
       </c>
       <c r="G1">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6469705278827593</v>
+        <v>-2.8217258101833038</v>
       </c>
       <c r="H1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8076414444780315</v>
+        <v>0.63815583767567619</v>
       </c>
       <c r="I1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40899661320672509</v>
+        <v>-2.244506685310887</v>
       </c>
       <c r="J1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4536581994112705</v>
+        <v>1.6826948931104404</v>
       </c>
       <c r="K1">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8601752455462517</v>
+        <v>-2.3265485459595676</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:K25" ca="1" si="1">RAND()*10-3</f>
-        <v>0.68197517558817689</v>
+        <v>-1.7302481537580368</v>
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5934222478200555</v>
+        <v>-2.9352815260630303</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3790098802905799</v>
+        <v>0.22237180187540329</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61378604916885449</v>
+        <v>4.5230781658801522</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>6.0169542699162779</v>
+        <v>-0.32186379164153323</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.1340989495360247E-2</v>
+        <v>2.1312198494872892</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1880582330454663</v>
+        <v>1.9345466325188116</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8334059307089507</v>
+        <v>5.6590128166170626</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2321752393903056</v>
+        <v>5.9221411995863029</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6403143817667054</v>
+        <v>2.3218366621637339</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.1007240903897249</v>
+        <v>1.6568790059293441</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98740516695735847</v>
+        <v>-1.9959723697840932</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.9666402950329047</v>
+        <v>4.0973083220304503</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7915364544771331</v>
+        <v>4.0258417508667161</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8978382446477067</v>
+        <v>6.14413995666178</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1389538664105281</v>
+        <v>2.1145609114719299</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.0772898902740287</v>
+        <v>5.8349653729073268</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3436234539027305</v>
+        <v>4.2076035293831842</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3599920179579676</v>
+        <v>2.8629900125950849</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.8806438814981059</v>
+        <v>-2.9796886708746237</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7615471269743388</v>
+        <v>6.4951859149207234</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2631324013919079</v>
+        <v>6.7189908847876616</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>7.180929223886956E-2</v>
+        <v>-0.12252192930688866</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.205867261805404</v>
+        <v>3.3793210821364967</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2599519648970361</v>
+        <v>1.3567348246638744</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.6306590119067927</v>
+        <v>2.6335064614814732</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.0577674915343422</v>
+        <v>-0.23969177069217373</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4913164203984488</v>
+        <v>2.0609732771643232</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1956395378913918</v>
+        <v>-2.2027772634074911</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6955469133564822</v>
+        <v>3.8784036606068106E-2</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5342783184992577</v>
+        <v>2.3986046075347618</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.76035889398836609</v>
+        <v>3.8550581085651077</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6841109805426022</v>
+        <v>3.7427571424341659</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>3.8881284115771706</v>
+        <v>-0.75269458855599947</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.658592031413054</v>
+        <v>-2.9909145991157642</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>4.9700490753913646</v>
+        <v>6.1617430804295878</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.6785115054244866E-2</v>
+        <v>4.6800740634679157</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8483994099928953</v>
+        <v>3.9883932746382165</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.55250489498178412</v>
+        <v>0.97433336077051802</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9402854012986959</v>
+        <v>-2.1805194026488723</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.1201533723639425</v>
+        <v>6.5134388523204052</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5312265633564586</v>
+        <v>-2.8206829469575538</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9157770480728944</v>
+        <v>6.8919954808664183</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4396805918749935</v>
+        <v>2.8872465113216164</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>6.9417846268827148</v>
+        <v>0.24883263811090561</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7207000880820633</v>
+        <v>2.3298917361239981</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.6668156595043699</v>
+        <v>5.2306294703394194</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.2198658065956085</v>
+        <v>-0.49175496724718037</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1253969011372007</v>
+        <v>-0.1230203902604905</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8276822180016232</v>
+        <v>2.0807169448107139</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5858287652406222</v>
+        <v>-0.70653653639449043</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.1377245370217501E-2</v>
+        <v>4.4560053694190724</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.893612405123271</v>
+        <v>-2.5087300591933044</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5858401272533094</v>
+        <v>0.59287140087834578</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.305127970532828</v>
+        <v>-1.2968108868381518</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38304526252820592</v>
+        <v>4.0289975592077623</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>6.0397433951823718</v>
+        <v>-1.1781554652927158</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.3026924561883453</v>
+        <v>1.2782776712057995</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.1893208760414566</v>
+        <v>5.3648722927502401</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>6.1868748288799811</v>
+        <v>2.8422399648277326</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.9256573331822509</v>
+        <v>1.7278731167714021</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.8100747710095151</v>
+        <v>4.9765919115894057</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68531622687828708</v>
+        <v>4.0819606334462311</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3545647928805717</v>
+        <v>1.8308486753722111</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>6.2983304719763993</v>
+        <v>-2.4465801125374171</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.90028298622517333</v>
+        <v>4.8167689257287867</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.6281793397170801</v>
+        <v>2.9124963131601573</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9718781872399518</v>
+        <v>1.4745345983202132</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2081593775027937</v>
+        <v>0.62942230879176098</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.6857767659185545</v>
+        <v>3.4571250729677541</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6159737297040095</v>
+        <v>-1.1973324182460705</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.9748636563360673</v>
+        <v>4.6178456327274748</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.49312112341594805</v>
+        <v>2.5444649138842186</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1247422410046291E-2</v>
+        <v>-0.2467322109491028</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8610973750267004</v>
+        <v>3.5414014291604037</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2029070811453249</v>
+        <v>-0.14734933988676158</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="0"/>
-        <v>6.605552698946342</v>
+        <v>5.0773014615025733</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.63850322048084429</v>
+        <v>-2.7313538690590553</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7265342933647032</v>
+        <v>3.8081647291927609</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9342213886710313</v>
+        <v>-0.32431649558599496</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>6.1854204085200486</v>
+        <v>6.2852449234619421</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.2870567681876026</v>
+        <v>-2.3815422698889672</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.740311916769975</v>
+        <v>-1.5095652678024414</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.89409997434991872</v>
+        <v>-0.73539473428252355</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8177728146090288</v>
+        <v>5.793932800824841</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.58969314699300313</v>
+        <v>2.1076191509544291</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.9403013300630174</v>
+        <v>1.4312914184157677</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1029943248474634</v>
+        <v>2.9114181523988414</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4520257242003698</v>
+        <v>-1.9669818448602612</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1718536989081496</v>
+        <v>1.6451026017414137</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.9100199889976739</v>
+        <v>-2.7054918443130314</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6215055442597661</v>
+        <v>5.2074591083593642</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.0142724779844419</v>
+        <v>-0.28853633742491347</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.59641687509206331</v>
+        <v>-0.97763427278720183</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>4.703255753810403</v>
+        <v>1.8498263404316848</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.7178359932517002</v>
+        <v>-0.53106193897436249</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.9868098144783137</v>
+        <v>2.9223600150978779</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5626727177802344</v>
+        <v>6.3875833919056326</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3341600914520884</v>
+        <v>-0.77282259927390529</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>4.112207523666962</v>
+        <v>-6.0491565200614161E-2</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83081816825352472</v>
+        <v>1.7136600876719843</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>5.6197783697931811</v>
+        <v>3.1189500964053201</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23573427455867701</v>
+        <v>1.2447147053269578</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4714100735356901</v>
+        <v>-2.82463256257435</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4544313042761212</v>
+        <v>1.20983251487643E-2</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2972555725075381</v>
+        <v>3.1254844439456901</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8434765713162973</v>
+        <v>2.3575112508698783</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.1281219991851472</v>
+        <v>2.2578544217794851</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.0221742275123651</v>
+        <v>1.6897037736673752</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="0"/>
-        <v>4.9012064853334829</v>
+        <v>-1.6209928311763795</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7060299210914511</v>
+        <v>0.79777694717412073</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>5.6127904680126246</v>
+        <v>-0.77058974914648593</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4120277681606481</v>
+        <v>3.3808858616091433</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7451475252138646</v>
+        <v>5.1036181154119387</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7287316264741897</v>
+        <v>6.6466075102165103</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9059910655346712</v>
+        <v>-2.5603816690411128</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0502953148160197</v>
+        <v>-0.43264375637267083</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3625193137252509</v>
+        <v>-1.3693994738849586</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4998793055048099</v>
+        <v>-0.17550473784802412</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7440886084788385</v>
+        <v>5.8387833442794985</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54631626618777007</v>
+        <v>0.57517957673160414</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.6855902017730235</v>
+        <v>0.16826005164646674</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>4.9795477642423496</v>
+        <v>5.2762841914351952</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.57812349737909319</v>
+        <v>2.7405162700017263</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2332309148063771</v>
+        <v>0.19356622862001283</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>6.9929749799563901E-2</v>
+        <v>4.9000391115678861</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96578678466515644</v>
+        <v>2.0532244383793126</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0798507034535776</v>
+        <v>5.4890164877121457</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.5523820199157585</v>
+        <v>6.143856490997246</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5807554605882839</v>
+        <v>6.1786653576554649</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.40596436435795535</v>
+        <v>-0.48329446109343044</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="0"/>
-        <v>5.811518320360852</v>
+        <v>-2.2855338512424779</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6280931106547261</v>
+        <v>-0.56273193756275441</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.2901488750742092</v>
+        <v>-2.6464995554663835</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>4.6452481349843779</v>
+        <v>-0.74736502695289042</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2808553500269495</v>
+        <v>5.3180526432700752</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9039246447311742</v>
+        <v>4.2970031355094562</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1407115534684249</v>
+        <v>0.66406647456197643</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7866866979462959</v>
+        <v>5.3394644800210074</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3750017545698014</v>
+        <v>1.9981904523110749</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.5427241977967094</v>
+        <v>-1.9676989045106925</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6910206774727294</v>
+        <v>6.6850626350489541</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4425809866413495</v>
+        <v>3.7497848896572759</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72905529248878764</v>
+        <v>5.0562802997799352</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.75869300093759406</v>
+        <v>2.3074211242492915</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3406221786377213</v>
+        <v>5.2593964728836351</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98675421303766431</v>
+        <v>5.357560063544998</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>5.2025340548004095</v>
+        <v>-2.8254434201568541</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.4988424276127983</v>
+        <v>1.7750128449615818</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3955977215287998</v>
+        <v>5.7220602152991358</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4258267504287012</v>
+        <v>-0.5664863406805738</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.0208355750865987</v>
+        <v>3.5823435405733903</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.060600922368294</v>
+        <v>3.3913239256183099</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.0025938329352817</v>
+        <v>6.8820622324230207</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>5.0261929397078031</v>
+        <v>-1.3577197989986896</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8956416725171144</v>
+        <v>6.2049560435724871</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5599357721275453</v>
+        <v>3.4578692533483117</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7848341817920499E-2</v>
+        <v>4.8501422744268456</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39266590107452526</v>
+        <v>1.5591228134147768</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16708343424226824</v>
+        <v>4.9514538323612829</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9147202447575555</v>
+        <v>-1.1662733820256983</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7728921265356758</v>
+        <v>-1.787326639138251</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="0"/>
-        <v>5.4778965107897015</v>
+        <v>-0.65163264867825177</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62122222876007349</v>
+        <v>4.8267377684399335</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.7510313078854938</v>
+        <v>-1.359995214924173</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3533130404569516</v>
+        <v>3.7301540310185608</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.023347651103615</v>
+        <v>6.0095835737765064</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5997801550836854</v>
+        <v>6.1960533946238687</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>5.2962685332796511</v>
+        <v>6.9341595774217613</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>6.0855956222264993</v>
+        <v>-2.3902295305928996</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.9646430757550122</v>
+        <v>1.6842501493307784</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3894825173229624</v>
+        <v>1.0534312469881817</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.5535547943189161</v>
+        <v>2.1222422952576956</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>5.8003801710050471</v>
+        <v>-1.0307938407596724</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="1"/>
-        <v>6.2564596410653781</v>
+        <v>3.1145933546292452</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.5391122770292904</v>
+        <v>1.7749345957033444</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.2765887932713067</v>
+        <v>0.28910653931640429</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>5.3897722252094695</v>
+        <v>-2.0564630246064315</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>2.579906485422379</v>
+        <v>0.95009722411499453</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>6.5835195845715564</v>
+        <v>-2.7105857460808052</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.4277710116785096</v>
+        <v>1.0929181616652919</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1417784560306083</v>
+        <v>6.296511853597778</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>5.1082643312216476</v>
+        <v>2.2478048807729021</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v>6.7812204767600903</v>
+        <v>4.1856582170928665</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="1"/>
-        <v>5.3052845921350098</v>
+        <v>5.0084751834788701</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6856180356301209E-2</v>
+        <v>8.4641650884774933E-2</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.9118205277638314</v>
+        <v>2.3655955531608353</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7398054623587598</v>
+        <v>3.1306457260831637</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>5.1345717839020484</v>
+        <v>-1.1317516463315676</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6136948270604332</v>
+        <v>-2.1551771851037014</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>2.3543064028670981</v>
+        <v>1.1158132100153457</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1158358854792754</v>
+        <v>-1.8413575597816285</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>4.1063221789117437</v>
+        <v>3.116805334720377</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>4.3337676483223095</v>
+        <v>4.9785572626836991</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52103698689772981</v>
+        <v>-7.5620314597439453E-2</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8667888342718824</v>
+        <v>-1.848065540016804</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="1"/>
-        <v>4.8064545241162637</v>
+        <v>2.6908461259014489</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45862820825932982</v>
+        <v>0.58315288607226279</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="1"/>
-        <v>2.0664697606647202</v>
+        <v>5.582750811934023</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.57444054052038496</v>
+        <v>3.5259050773545759</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>5.669014886082433</v>
+        <v>-1.9245198801857173</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.64021282456702</v>
+        <v>-0.87295955372521838</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>6.4466042371131191</v>
+        <v>5.0256474018671291</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.96362639509460069</v>
+        <v>1.1249789487357109</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>4.6509055379271427</v>
+        <v>2.6282138323987265</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.4575785015052884</v>
+        <v>3.4044111238793002</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="1"/>
-        <v>2.8239600185206175</v>
+        <v>-1.1355043322160392</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="1"/>
-        <v>5.942012162787524</v>
+        <v>4.8927262387025632</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="1"/>
-        <v>5.2248114116992035</v>
+        <v>3.8936495068884085</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3799156957701255</v>
+        <v>-0.10878046575147637</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>4.4685075507664127</v>
+        <v>-1.9888127330367129</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5773303367305029</v>
+        <v>7.0556755016267125E-2</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.7215005859976746</v>
+        <v>0.14424701587979527</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4488677946603019</v>
+        <v>-2.7383859052040478</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="1"/>
-        <v>6.4765741480014967</v>
+        <v>6.0287669513055011</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="1"/>
-        <v>1.416968173507362</v>
+        <v>4.0996531662939262E-2</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="1"/>
-        <v>2.096616186101893</v>
+        <v>2.4042928140143136</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.5064368192803552</v>
+        <v>3.4489968777036175</v>
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="1"/>
-        <v>3.6788851601776047</v>
+        <v>1.4921039100735696</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="1"/>
-        <v>4.7065266240415262</v>
+        <v>5.3816399535713622</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ca="1" si="1"/>
-        <v>6.4201098694014469</v>
+        <v>-2.424505556601932</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.1827460936917005</v>
+        <v>-2.3320259231558236</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6428115389418059</v>
+        <v>3.5773892009823545</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>6.0828987334894578</v>
+        <v>-0.80945012995260424</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4661764292441442</v>
+        <v>-2.801577689120784</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4040846822104402</v>
+        <v>0.32877598900230964</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3885116661141392</v>
+        <v>4.3848763310147945</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="1"/>
-        <v>6.3150606982473843</v>
+        <v>4.3992935956540773</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="1"/>
-        <v>4.526520115495325</v>
+        <v>-2.5465611487355275</v>
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="1"/>
-        <v>3.8646829423627658</v>
+        <v>1.3335409249717536</v>
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="1"/>
-        <v>5.9169658511568421</v>
+        <v>4.7867906822259725</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ca="1" si="1"/>
-        <v>6.9317741523352598</v>
+        <v>3.4160359459533778</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90057744313913046</v>
+        <v>3.5641229197338822</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.2742304757987084</v>
+        <v>4.9917481067959617</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>3.2039592513527744</v>
+        <v>-1.5055808218061479</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>5.1223686542639726</v>
+        <v>2.0657176286449026</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5192687799989333</v>
+        <v>6.3763759046306845</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.388971484853629</v>
+        <v>3.8449430195958545</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55964732493377323</v>
+        <v>-1.2556583988905652</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="1"/>
-        <v>3.9974916517365298</v>
+        <v>-0.94094216206525649</v>
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="1"/>
-        <v>5.0678273782864469</v>
+        <v>6.1619138038825447</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42486877809288659</v>
+        <v>1.7644319178744245</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.0512328357474892</v>
+        <v>0.35936811183373507</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.5694796746974409</v>
+        <v>4.9613184920088642</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>5.2000850552690601</v>
+        <v>1.2565622865724713E-2</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
-        <v>5.4175439692549663</v>
+        <v>4.4036957021243586</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="1"/>
-        <v>6.0087174383058528</v>
+        <v>-1.2409526976886138</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="1"/>
-        <v>5.1068257500056653</v>
+        <v>-1.4112257509226873</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3667028638181975</v>
+        <v>2.4436806280861152</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.364702626786007</v>
+        <v>4.8320189201448356</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="1"/>
-        <v>5.3278964196946745</v>
+        <v>3.0164075049056986</v>
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8933169310017295</v>
+        <v>2.2612548277125519</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5855284573235542</v>
+        <v>6.2283746920746843</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ca="1" si="1"/>
-        <v>1.925562397110733</v>
+        <v>-2.8997803804268458</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6166764458870624</v>
+        <v>-1.2625985972290228</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>4.3645324752501082</v>
+        <v>0.45572901647000919</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>5.5553228314010923</v>
+        <v>3.7834241310832457</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="1"/>
-        <v>5.6438817130778283</v>
+        <v>2.5093814308330611</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="1"/>
-        <v>4.328918445828303</v>
+        <v>-1.9419233411015508</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="1"/>
-        <v>5.8278119637649137</v>
+        <v>3.9543610568600043</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.11969600425109128</v>
+        <v>6.4789399343966796</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.7319152147173651</v>
+        <v>-1.5520148937767348</v>
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2487651747365369</v>
+        <v>1.598779956578265</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="1"/>
-        <v>4.0431356342845577</v>
+        <v>-1.2573528004510766</v>
       </c>
     </row>
   </sheetData>
